--- a/Unity/Assets/Config/Excel/PetBarConfig.xlsx
+++ b/Unity/Assets/Config/Excel/PetBarConfig.xlsx
@@ -2382,7 +2382,7 @@
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomLeft" activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>

--- a/Unity/Assets/Config/Excel/PetBarConfig.xlsx
+++ b/Unity/Assets/Config/Excel/PetBarConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12795"/>
   </bookViews>
   <sheets>
     <sheet name="PetBarProto" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
   <si>
     <t>Id</t>
   </si>
@@ -74,7 +74,7 @@
     <t>攻击栏位</t>
   </si>
   <si>
-    <t>70105001,70105002</t>
+    <t>70105001,70105002,2101010</t>
   </si>
   <si>
     <t>100403;10</t>
@@ -83,43 +83,58 @@
     <t>1;20000</t>
   </si>
   <si>
+    <t>70105003,2101020</t>
+  </si>
+  <si>
     <t>100403;20</t>
   </si>
   <si>
     <t>1;30000</t>
   </si>
   <si>
+    <t>70105004,2101030</t>
+  </si>
+  <si>
     <t>100403;30</t>
   </si>
   <si>
     <t>远程栏位</t>
   </si>
   <si>
-    <t>70202001</t>
+    <t>70202001,2101010</t>
   </si>
   <si>
     <t>100403;60</t>
   </si>
   <si>
-    <t>70202002,70202003</t>
+    <t>70202002,70202003,2101020</t>
   </si>
   <si>
     <t>100403;70</t>
   </si>
   <si>
+    <t>70202004,2101030</t>
+  </si>
+  <si>
     <t>100403;80</t>
   </si>
   <si>
     <t>辅助栏位</t>
   </si>
   <si>
+    <t>70204001,2101010</t>
+  </si>
+  <si>
     <t>100403;90</t>
   </si>
   <si>
-    <t>70204002,70204003</t>
+    <t>70204002,70204003,2101020</t>
   </si>
   <si>
     <t>100403;100</t>
+  </si>
+  <si>
+    <t>70204004,2101030</t>
   </si>
   <si>
     <t>100403;110</t>
@@ -1081,7 +1096,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1099,22 +1114,16 @@
     <xf numFmtId="49" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" quotePrefix="1">
@@ -2379,17 +2388,17 @@
   <sheetPr/>
   <dimension ref="C1:GK15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H25" sqref="H25"/>
+      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
     <col min="3" max="3" width="11" style="2" customWidth="1"/>
     <col min="4" max="6" width="14.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="22.375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="31.75" style="2" customWidth="1"/>
     <col min="8" max="8" width="23.625" style="3" customWidth="1"/>
     <col min="9" max="193" width="8.875" style="2" customWidth="1"/>
   </cols>
@@ -2434,10 +2443,10 @@
       <c r="E4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="H4" s="6" t="s">
@@ -2465,99 +2474,99 @@
       </c>
     </row>
     <row r="6" ht="20.1" customHeight="1" spans="3:8">
-      <c r="C6" s="10">
+      <c r="C6" s="9">
         <v>100001</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="10">
         <v>1</v>
       </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="14" t="s">
+      <c r="F6" s="10"/>
+      <c r="G6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" ht="20.1" customHeight="1" spans="3:8">
-      <c r="C7" s="10">
+      <c r="C7" s="9">
         <v>100002</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <v>2</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="12">
-        <v>70105003</v>
-      </c>
-      <c r="H7" s="15" t="s">
+      <c r="G7" s="11" t="s">
         <v>18</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8" ht="20.1" customHeight="1" spans="3:8">
-      <c r="C8" s="10">
+      <c r="C8" s="9">
         <v>100003</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <v>3</v>
       </c>
-      <c r="F8" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="12">
-        <v>70105004</v>
-      </c>
-      <c r="H8" s="15" t="s">
+      <c r="F8" s="10" t="s">
         <v>20</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="9" ht="20.1" customHeight="1" spans="3:8">
-      <c r="C9" s="10">
+      <c r="C9" s="9">
         <v>200001</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="11">
+      <c r="D9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="10">
         <v>1</v>
       </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>23</v>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="10" customFormat="1" ht="20.1" customHeight="1" spans="3:193">
-      <c r="C10" s="10">
+      <c r="C10" s="9">
         <v>200002</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="11">
+      <c r="D10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="10">
         <v>2</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>25</v>
+      <c r="G10" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -2746,23 +2755,23 @@
       <c r="GK10" s="2"/>
     </row>
     <row r="11" customFormat="1" ht="20.1" customHeight="1" spans="3:193">
-      <c r="C11" s="10">
+      <c r="C11" s="9">
         <v>200003</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="11">
+      <c r="D11" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="10">
         <v>3</v>
       </c>
-      <c r="F11" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="12">
-        <v>70202004</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>26</v>
+      <c r="F11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -2951,41 +2960,41 @@
       <c r="GK11" s="2"/>
     </row>
     <row r="12" ht="20.1" customHeight="1" spans="3:8">
-      <c r="C12" s="10">
+      <c r="C12" s="9">
         <v>300001</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="11">
+      <c r="D12" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="10">
         <v>1</v>
       </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12">
-        <v>70204001</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>28</v>
+      <c r="F12" s="10"/>
+      <c r="G12" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="13" customFormat="1" ht="20.1" customHeight="1" spans="3:193">
-      <c r="C13" s="10">
+      <c r="C13" s="9">
         <v>300002</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="11">
+      <c r="D13" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="10">
         <v>2</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>30</v>
+      <c r="G13" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -3174,23 +3183,23 @@
       <c r="GK13" s="2"/>
     </row>
     <row r="14" customFormat="1" ht="20.1" customHeight="1" spans="3:193">
-      <c r="C14" s="10">
+      <c r="C14" s="9">
         <v>300003</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="11">
+      <c r="D14" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="10">
         <v>3</v>
       </c>
-      <c r="F14" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="12">
-        <v>70204004</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>31</v>
+      <c r="F14" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>

--- a/Unity/Assets/Config/Excel/PetBarConfig.xlsx
+++ b/Unity/Assets/Config/Excel/PetBarConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12795"/>
+    <workbookView windowWidth="14880" windowHeight="10875"/>
   </bookViews>
   <sheets>
     <sheet name="PetBarProto" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
     <t>攻击栏位</t>
   </si>
   <si>
-    <t>70105001,70105002,2101010</t>
+    <t>70105001,70105002,1010002</t>
   </si>
   <si>
     <t>100403;10</t>
@@ -83,7 +83,7 @@
     <t>1;20000</t>
   </si>
   <si>
-    <t>70105003,2101020</t>
+    <t>70105003,1010012</t>
   </si>
   <si>
     <t>100403;20</t>
@@ -92,7 +92,7 @@
     <t>1;30000</t>
   </si>
   <si>
-    <t>70105004,2101030</t>
+    <t>70105004,1010022</t>
   </si>
   <si>
     <t>100403;30</t>
@@ -101,19 +101,19 @@
     <t>远程栏位</t>
   </si>
   <si>
-    <t>70202001,2101010</t>
+    <t>70202001</t>
   </si>
   <si>
     <t>100403;60</t>
   </si>
   <si>
-    <t>70202002,70202003,2101020</t>
+    <t>70202002,70202003,1010002</t>
   </si>
   <si>
     <t>100403;70</t>
   </si>
   <si>
-    <t>70202004,2101030</t>
+    <t>70202004,1010032</t>
   </si>
   <si>
     <t>100403;80</t>
@@ -122,19 +122,19 @@
     <t>辅助栏位</t>
   </si>
   <si>
-    <t>70204001,2101010</t>
+    <t>70204001</t>
   </si>
   <si>
     <t>100403;90</t>
   </si>
   <si>
-    <t>70204002,70204003,2101020</t>
+    <t>70204002,70204003</t>
   </si>
   <si>
     <t>100403;100</t>
   </si>
   <si>
-    <t>70204004,2101030</t>
+    <t>70204004</t>
   </si>
   <si>
     <t>100403;110</t>
@@ -2391,7 +2391,7 @@
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
+      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>

--- a/Unity/Assets/Config/Excel/PetBarConfig.xlsx
+++ b/Unity/Assets/Config/Excel/PetBarConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14880" windowHeight="10875"/>
+    <workbookView windowWidth="28800" windowHeight="12795"/>
   </bookViews>
   <sheets>
     <sheet name="PetBarProto" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
   <si>
     <t>Id</t>
   </si>
@@ -74,7 +74,7 @@
     <t>攻击栏位</t>
   </si>
   <si>
-    <t>70105001,70105002,1010002</t>
+    <t>1010002</t>
   </si>
   <si>
     <t>100403;10</t>
@@ -83,7 +83,7 @@
     <t>1;20000</t>
   </si>
   <si>
-    <t>70105003,1010012</t>
+    <t>1010012</t>
   </si>
   <si>
     <t>100403;20</t>
@@ -92,7 +92,7 @@
     <t>1;30000</t>
   </si>
   <si>
-    <t>70105004,1010022</t>
+    <t>1010022</t>
   </si>
   <si>
     <t>100403;30</t>
@@ -101,19 +101,13 @@
     <t>远程栏位</t>
   </si>
   <si>
-    <t>70202001</t>
-  </si>
-  <si>
     <t>100403;60</t>
-  </si>
-  <si>
-    <t>70202002,70202003,1010002</t>
   </si>
   <si>
     <t>100403;70</t>
   </si>
   <si>
-    <t>70202004,1010032</t>
+    <t>1010032</t>
   </si>
   <si>
     <t>100403;80</t>
@@ -122,19 +116,10 @@
     <t>辅助栏位</t>
   </si>
   <si>
-    <t>70204001</t>
-  </si>
-  <si>
     <t>100403;90</t>
   </si>
   <si>
-    <t>70204002,70204003</t>
-  </si>
-  <si>
     <t>100403;100</t>
-  </si>
-  <si>
-    <t>70204004</t>
   </si>
   <si>
     <t>100403;110</t>
@@ -2391,7 +2376,7 @@
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -2543,10 +2528,10 @@
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="13" t="s">
         <v>24</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="10" customFormat="1" ht="20.1" customHeight="1" spans="3:193">
@@ -2563,10 +2548,10 @@
         <v>17</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -2768,10 +2753,10 @@
         <v>20</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -2964,17 +2949,17 @@
         <v>300001</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E12" s="10">
         <v>1</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="11" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" customFormat="1" ht="20.1" customHeight="1" spans="3:193">
@@ -2982,7 +2967,7 @@
         <v>300002</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E13" s="10">
         <v>2</v>
@@ -2991,10 +2976,10 @@
         <v>17</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -3187,7 +3172,7 @@
         <v>300003</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E14" s="10">
         <v>3</v>
@@ -3196,10 +3181,10 @@
         <v>20</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>

--- a/Unity/Assets/Config/Excel/PetBarConfig.xlsx
+++ b/Unity/Assets/Config/Excel/PetBarConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12795"/>
+    <workbookView windowWidth="15600" windowHeight="11610"/>
   </bookViews>
   <sheets>
     <sheet name="PetBarProto" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
   <si>
     <t>Id</t>
   </si>
@@ -74,7 +74,7 @@
     <t>攻击栏位</t>
   </si>
   <si>
-    <t>1010002</t>
+    <t>70105001,70105002,1010002</t>
   </si>
   <si>
     <t>100403;10</t>
@@ -83,7 +83,7 @@
     <t>1;20000</t>
   </si>
   <si>
-    <t>1010012</t>
+    <t>70105003,1010012</t>
   </si>
   <si>
     <t>100403;20</t>
@@ -92,7 +92,7 @@
     <t>1;30000</t>
   </si>
   <si>
-    <t>1010022</t>
+    <t>70105004,1010022</t>
   </si>
   <si>
     <t>100403;30</t>
@@ -101,13 +101,19 @@
     <t>远程栏位</t>
   </si>
   <si>
+    <t>70202001,1010002</t>
+  </si>
+  <si>
     <t>100403;60</t>
   </si>
   <si>
+    <t>70202002,70202003,1010012</t>
+  </si>
+  <si>
     <t>100403;70</t>
   </si>
   <si>
-    <t>1010032</t>
+    <t>70202004,1010032</t>
   </si>
   <si>
     <t>100403;80</t>
@@ -116,10 +122,19 @@
     <t>辅助栏位</t>
   </si>
   <si>
+    <t>70204001,1010002</t>
+  </si>
+  <si>
     <t>100403;90</t>
   </si>
   <si>
+    <t>70204002,1010012</t>
+  </si>
+  <si>
     <t>100403;100</t>
+  </si>
+  <si>
+    <t>70204004,1010022</t>
   </si>
   <si>
     <t>100403;110</t>
@@ -2373,10 +2388,10 @@
   <sheetPr/>
   <dimension ref="C1:GK15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -2528,10 +2543,10 @@
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="11" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" customFormat="1" ht="20.1" customHeight="1" spans="3:193">
@@ -2548,10 +2563,10 @@
         <v>17</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -2753,10 +2768,10 @@
         <v>20</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -2949,17 +2964,17 @@
         <v>300001</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E12" s="10">
         <v>1</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="11" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" customFormat="1" ht="20.1" customHeight="1" spans="3:193">
@@ -2967,7 +2982,7 @@
         <v>300002</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E13" s="10">
         <v>2</v>
@@ -2976,10 +2991,10 @@
         <v>17</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -3172,7 +3187,7 @@
         <v>300003</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E14" s="10">
         <v>3</v>
@@ -3181,10 +3196,10 @@
         <v>20</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>

--- a/Unity/Assets/Config/Excel/PetBarConfig.xlsx
+++ b/Unity/Assets/Config/Excel/PetBarConfig.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE41F31-FDEF-4391-91DD-A9EA1C4D9209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="15600" windowHeight="11610"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PetBarProto" sheetId="1" r:id="rId1"/>
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
   <si>
     <t>Id</t>
   </si>
@@ -74,67 +80,40 @@
     <t>攻击栏位</t>
   </si>
   <si>
-    <t>70105001,70105002,1010002</t>
-  </si>
-  <si>
     <t>100403;10</t>
   </si>
   <si>
     <t>1;20000</t>
   </si>
   <si>
-    <t>70105003,1010012</t>
-  </si>
-  <si>
     <t>100403;20</t>
   </si>
   <si>
     <t>1;30000</t>
   </si>
   <si>
-    <t>70105004,1010022</t>
-  </si>
-  <si>
     <t>100403;30</t>
   </si>
   <si>
     <t>远程栏位</t>
   </si>
   <si>
-    <t>70202001,1010002</t>
-  </si>
-  <si>
     <t>100403;60</t>
   </si>
   <si>
-    <t>70202002,70202003,1010012</t>
-  </si>
-  <si>
     <t>100403;70</t>
   </si>
   <si>
-    <t>70202004,1010032</t>
-  </si>
-  <si>
     <t>100403;80</t>
   </si>
   <si>
     <t>辅助栏位</t>
   </si>
   <si>
-    <t>70204001,1010002</t>
-  </si>
-  <si>
     <t>100403;90</t>
   </si>
   <si>
-    <t>70204002,1010012</t>
-  </si>
-  <si>
     <t>100403;100</t>
-  </si>
-  <si>
-    <t>70204004,1010022</t>
   </si>
   <si>
     <t>100403;110</t>
@@ -143,14 +122,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="27">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -161,6 +134,7 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -168,186 +142,51 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="43">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -374,7 +213,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14996795556505"/>
+        <fgColor theme="0" tint="-0.14993743705557422"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,222 +225,78 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.79970702230903046"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.79970702230903046"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.79970702230903046"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.79970702230903046"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.79970702230903046"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799737540818506"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799737540818506"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799737540818506"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799737540818506"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799737540818506"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799737540818506"/>
+        <fgColor theme="9" tint="0.79970702230903046"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -704,288 +399,25 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="106">
+  <cellStyleXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -997,49 +429,85 @@
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
@@ -1068,7 +536,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -1100,7 +568,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1123,121 +591,71 @@
     <xf numFmtId="49" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" quotePrefix="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="106">
+  <cellStyles count="58">
+    <cellStyle name="20% - 强调文字颜色 1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 3" xfId="6" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 3" xfId="9" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 3" xfId="12" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2" xfId="13" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 3" xfId="15" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 3" xfId="18" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 3" xfId="21" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 3" xfId="24" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="26" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 3" xfId="27" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2" xfId="28" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="29" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 3" xfId="30" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2" xfId="31" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 3" xfId="33" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 3" xfId="36" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 1 2" xfId="49"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="50"/>
-    <cellStyle name="20% - 强调文字颜色 1 3" xfId="51"/>
-    <cellStyle name="20% - 强调文字颜色 2 2" xfId="52"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2 3" xfId="54"/>
-    <cellStyle name="20% - 强调文字颜色 3 2" xfId="55"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="56"/>
-    <cellStyle name="20% - 强调文字颜色 3 3" xfId="57"/>
-    <cellStyle name="20% - 强调文字颜色 4 2" xfId="58"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="59"/>
-    <cellStyle name="20% - 强调文字颜色 4 3" xfId="60"/>
-    <cellStyle name="20% - 强调文字颜色 5 2" xfId="61"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="62"/>
-    <cellStyle name="20% - 强调文字颜色 5 3" xfId="63"/>
-    <cellStyle name="20% - 强调文字颜色 6 2" xfId="64"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="65"/>
-    <cellStyle name="20% - 强调文字颜色 6 3" xfId="66"/>
-    <cellStyle name="40% - 强调文字颜色 1 2" xfId="67"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="68"/>
-    <cellStyle name="40% - 强调文字颜色 1 3" xfId="69"/>
-    <cellStyle name="40% - 强调文字颜色 2 2" xfId="70"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="71"/>
-    <cellStyle name="40% - 强调文字颜色 2 3" xfId="72"/>
-    <cellStyle name="40% - 强调文字颜色 3 2" xfId="73"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="74"/>
-    <cellStyle name="40% - 强调文字颜色 3 3" xfId="75"/>
-    <cellStyle name="40% - 强调文字颜色 4 2" xfId="76"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="77"/>
-    <cellStyle name="40% - 强调文字颜色 4 3" xfId="78"/>
-    <cellStyle name="40% - 强调文字颜色 5 2" xfId="79"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="80"/>
-    <cellStyle name="40% - 强调文字颜色 5 3" xfId="81"/>
-    <cellStyle name="40% - 强调文字颜色 6 2" xfId="82"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="83"/>
-    <cellStyle name="40% - 强调文字颜色 6 3" xfId="84"/>
-    <cellStyle name="常规 2" xfId="85"/>
-    <cellStyle name="常规 2 2" xfId="86"/>
-    <cellStyle name="常规 2 3" xfId="87"/>
-    <cellStyle name="常规 2 3 2" xfId="88"/>
-    <cellStyle name="常规 2 3 2 2" xfId="89"/>
-    <cellStyle name="常规 2 3 2 2 2" xfId="90"/>
-    <cellStyle name="常规 2 3 2 3" xfId="91"/>
-    <cellStyle name="常规 2 3 3" xfId="92"/>
-    <cellStyle name="常规 2 3 3 2" xfId="93"/>
-    <cellStyle name="常规 2 3 4" xfId="94"/>
-    <cellStyle name="常规 3" xfId="95"/>
-    <cellStyle name="常规 4" xfId="96"/>
-    <cellStyle name="常规 5" xfId="97"/>
-    <cellStyle name="常规 5 2" xfId="98"/>
-    <cellStyle name="常规 5 2 2" xfId="99"/>
-    <cellStyle name="常规 5 3" xfId="100"/>
-    <cellStyle name="常规 6" xfId="101"/>
-    <cellStyle name="注释 2" xfId="102"/>
-    <cellStyle name="注释 2 2" xfId="103"/>
-    <cellStyle name="注释 2 2 2" xfId="104"/>
-    <cellStyle name="注释 2 3" xfId="105"/>
+    <cellStyle name="常规 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="常规 2 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="常规 2 3" xfId="39" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="常规 2 3 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="常规 2 3 2 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="常规 2 3 2 2 2" xfId="42" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="常规 2 3 2 3" xfId="43" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+    <cellStyle name="常规 2 3 3" xfId="44" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="常规 2 3 3 2" xfId="45" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="常规 2 3 4" xfId="46" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="常规 3" xfId="47" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="常规 4" xfId="48" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="常规 5" xfId="49" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="常规 5 2" xfId="50" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="常规 5 2 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="常规 5 3" xfId="52" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="常规 6" xfId="53" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="注释 2" xfId="54" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="注释 2 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="注释 2 2 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="注释 2 3" xfId="57" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <indexedColors>
@@ -1310,6 +728,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2380,18 +1801,17 @@
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="C1:GK15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="C1:GK23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
+      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -2403,17 +1823,17 @@
     <col min="9" max="193" width="8.875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="3:8">
+    <row r="1" spans="3:8" s="1" customFormat="1" ht="14.25">
       <c r="C1" s="4"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" customHeight="1" spans="4:7">
+    <row r="2" spans="3:8" ht="13.5" customHeight="1">
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" ht="20.1" customHeight="1" spans="3:8">
+    <row r="3" spans="3:8" ht="20.100000000000001" customHeight="1">
       <c r="C3" s="5" t="s">
         <v>0</v>
       </c>
@@ -2433,7 +1853,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" ht="20.1" customHeight="1" spans="3:8">
+    <row r="4" spans="3:8" ht="20.100000000000001" customHeight="1">
       <c r="C4" s="5" t="s">
         <v>0</v>
       </c>
@@ -2453,7 +1873,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" ht="20.1" customHeight="1" spans="3:8">
+    <row r="5" spans="3:8" ht="20.100000000000001" customHeight="1">
       <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
@@ -2473,7 +1893,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" ht="20.1" customHeight="1" spans="3:8">
+    <row r="6" spans="3:8" ht="20.100000000000001" customHeight="1">
       <c r="C6" s="9">
         <v>100001</v>
       </c>
@@ -2484,14 +1904,14 @@
         <v>1</v>
       </c>
       <c r="F6" s="10"/>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="11">
+        <v>2901010</v>
+      </c>
+      <c r="H6" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="13" t="s">
-        <v>16</v>
-      </c>
     </row>
-    <row r="7" ht="20.1" customHeight="1" spans="3:8">
+    <row r="7" spans="3:8" ht="20.100000000000001" customHeight="1">
       <c r="C7" s="9">
         <v>100002</v>
       </c>
@@ -2502,16 +1922,16 @@
         <v>2</v>
       </c>
       <c r="F7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="11">
+        <v>2901020</v>
+      </c>
+      <c r="H7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="8" ht="20.1" customHeight="1" spans="3:8">
+    <row r="8" spans="3:8" ht="20.100000000000001" customHeight="1">
       <c r="C8" s="9">
         <v>100003</v>
       </c>
@@ -2522,877 +1942,297 @@
         <v>3</v>
       </c>
       <c r="F8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="11">
+        <v>2901030</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" ht="20.100000000000001" customHeight="1">
+      <c r="C9" s="9">
+        <v>100004</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="10">
+        <v>4</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="11">
+        <v>2901040</v>
+      </c>
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="3:8" ht="20.100000000000001" customHeight="1">
+      <c r="C10" s="9">
+        <v>100005</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="10">
+        <v>5</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="11">
+        <v>2901050</v>
+      </c>
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" spans="3:8" ht="20.100000000000001" customHeight="1">
+      <c r="C11" s="9">
+        <v>100006</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="10">
+        <v>6</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="11">
+        <v>2901060</v>
+      </c>
+      <c r="H11" s="12"/>
+    </row>
+    <row r="12" spans="3:8" ht="20.100000000000001" customHeight="1">
+      <c r="C12" s="9">
+        <v>200001</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>20</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" ht="20.1" customHeight="1" spans="3:8">
-      <c r="C9" s="9">
-        <v>200001</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="10">
-        <v>1</v>
-      </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" customFormat="1" ht="20.1" customHeight="1" spans="3:193">
-      <c r="C10" s="9">
-        <v>200002</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="10">
-        <v>2</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
-      <c r="Z10" s="2"/>
-      <c r="AA10" s="2"/>
-      <c r="AB10" s="2"/>
-      <c r="AC10" s="2"/>
-      <c r="AD10" s="2"/>
-      <c r="AE10" s="2"/>
-      <c r="AF10" s="2"/>
-      <c r="AG10" s="2"/>
-      <c r="AH10" s="2"/>
-      <c r="AI10" s="2"/>
-      <c r="AJ10" s="2"/>
-      <c r="AK10" s="2"/>
-      <c r="AL10" s="2"/>
-      <c r="AM10" s="2"/>
-      <c r="AN10" s="2"/>
-      <c r="AO10" s="2"/>
-      <c r="AP10" s="2"/>
-      <c r="AQ10" s="2"/>
-      <c r="AR10" s="2"/>
-      <c r="AS10" s="2"/>
-      <c r="AT10" s="2"/>
-      <c r="AU10" s="2"/>
-      <c r="AV10" s="2"/>
-      <c r="AW10" s="2"/>
-      <c r="AX10" s="2"/>
-      <c r="AY10" s="2"/>
-      <c r="AZ10" s="2"/>
-      <c r="BA10" s="2"/>
-      <c r="BB10" s="2"/>
-      <c r="BC10" s="2"/>
-      <c r="BD10" s="2"/>
-      <c r="BE10" s="2"/>
-      <c r="BF10" s="2"/>
-      <c r="BG10" s="2"/>
-      <c r="BH10" s="2"/>
-      <c r="BI10" s="2"/>
-      <c r="BJ10" s="2"/>
-      <c r="BK10" s="2"/>
-      <c r="BL10" s="2"/>
-      <c r="BM10" s="2"/>
-      <c r="BN10" s="2"/>
-      <c r="BO10" s="2"/>
-      <c r="BP10" s="2"/>
-      <c r="BQ10" s="2"/>
-      <c r="BR10" s="2"/>
-      <c r="BS10" s="2"/>
-      <c r="BT10" s="2"/>
-      <c r="BU10" s="2"/>
-      <c r="BV10" s="2"/>
-      <c r="BW10" s="2"/>
-      <c r="BX10" s="2"/>
-      <c r="BY10" s="2"/>
-      <c r="BZ10" s="2"/>
-      <c r="CA10" s="2"/>
-      <c r="CB10" s="2"/>
-      <c r="CC10" s="2"/>
-      <c r="CD10" s="2"/>
-      <c r="CE10" s="2"/>
-      <c r="CF10" s="2"/>
-      <c r="CG10" s="2"/>
-      <c r="CH10" s="2"/>
-      <c r="CI10" s="2"/>
-      <c r="CJ10" s="2"/>
-      <c r="CK10" s="2"/>
-      <c r="CL10" s="2"/>
-      <c r="CM10" s="2"/>
-      <c r="CN10" s="2"/>
-      <c r="CO10" s="2"/>
-      <c r="CP10" s="2"/>
-      <c r="CQ10" s="2"/>
-      <c r="CR10" s="2"/>
-      <c r="CS10" s="2"/>
-      <c r="CT10" s="2"/>
-      <c r="CU10" s="2"/>
-      <c r="CV10" s="2"/>
-      <c r="CW10" s="2"/>
-      <c r="CX10" s="2"/>
-      <c r="CY10" s="2"/>
-      <c r="CZ10" s="2"/>
-      <c r="DA10" s="2"/>
-      <c r="DB10" s="2"/>
-      <c r="DC10" s="2"/>
-      <c r="DD10" s="2"/>
-      <c r="DE10" s="2"/>
-      <c r="DF10" s="2"/>
-      <c r="DG10" s="2"/>
-      <c r="DH10" s="2"/>
-      <c r="DI10" s="2"/>
-      <c r="DJ10" s="2"/>
-      <c r="DK10" s="2"/>
-      <c r="DL10" s="2"/>
-      <c r="DM10" s="2"/>
-      <c r="DN10" s="2"/>
-      <c r="DO10" s="2"/>
-      <c r="DP10" s="2"/>
-      <c r="DQ10" s="2"/>
-      <c r="DR10" s="2"/>
-      <c r="DS10" s="2"/>
-      <c r="DT10" s="2"/>
-      <c r="DU10" s="2"/>
-      <c r="DV10" s="2"/>
-      <c r="DW10" s="2"/>
-      <c r="DX10" s="2"/>
-      <c r="DY10" s="2"/>
-      <c r="DZ10" s="2"/>
-      <c r="EA10" s="2"/>
-      <c r="EB10" s="2"/>
-      <c r="EC10" s="2"/>
-      <c r="ED10" s="2"/>
-      <c r="EE10" s="2"/>
-      <c r="EF10" s="2"/>
-      <c r="EG10" s="2"/>
-      <c r="EH10" s="2"/>
-      <c r="EI10" s="2"/>
-      <c r="EJ10" s="2"/>
-      <c r="EK10" s="2"/>
-      <c r="EL10" s="2"/>
-      <c r="EM10" s="2"/>
-      <c r="EN10" s="2"/>
-      <c r="EO10" s="2"/>
-      <c r="EP10" s="2"/>
-      <c r="EQ10" s="2"/>
-      <c r="ER10" s="2"/>
-      <c r="ES10" s="2"/>
-      <c r="ET10" s="2"/>
-      <c r="EU10" s="2"/>
-      <c r="EV10" s="2"/>
-      <c r="EW10" s="2"/>
-      <c r="EX10" s="2"/>
-      <c r="EY10" s="2"/>
-      <c r="EZ10" s="2"/>
-      <c r="FA10" s="2"/>
-      <c r="FB10" s="2"/>
-      <c r="FC10" s="2"/>
-      <c r="FD10" s="2"/>
-      <c r="FE10" s="2"/>
-      <c r="FF10" s="2"/>
-      <c r="FG10" s="2"/>
-      <c r="FH10" s="2"/>
-      <c r="FI10" s="2"/>
-      <c r="FJ10" s="2"/>
-      <c r="FK10" s="2"/>
-      <c r="FL10" s="2"/>
-      <c r="FM10" s="2"/>
-      <c r="FN10" s="2"/>
-      <c r="FO10" s="2"/>
-      <c r="FP10" s="2"/>
-      <c r="FQ10" s="2"/>
-      <c r="FR10" s="2"/>
-      <c r="FS10" s="2"/>
-      <c r="FT10" s="2"/>
-      <c r="FU10" s="2"/>
-      <c r="FV10" s="2"/>
-      <c r="FW10" s="2"/>
-      <c r="FX10" s="2"/>
-      <c r="FY10" s="2"/>
-      <c r="FZ10" s="2"/>
-      <c r="GA10" s="2"/>
-      <c r="GB10" s="2"/>
-      <c r="GC10" s="2"/>
-      <c r="GD10" s="2"/>
-      <c r="GE10" s="2"/>
-      <c r="GF10" s="2"/>
-      <c r="GG10" s="2"/>
-      <c r="GH10" s="2"/>
-      <c r="GI10" s="2"/>
-      <c r="GJ10" s="2"/>
-      <c r="GK10" s="2"/>
-    </row>
-    <row r="11" customFormat="1" ht="20.1" customHeight="1" spans="3:193">
-      <c r="C11" s="9">
-        <v>200003</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="10">
-        <v>3</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
-      <c r="W11" s="2"/>
-      <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
-      <c r="Z11" s="2"/>
-      <c r="AA11" s="2"/>
-      <c r="AB11" s="2"/>
-      <c r="AC11" s="2"/>
-      <c r="AD11" s="2"/>
-      <c r="AE11" s="2"/>
-      <c r="AF11" s="2"/>
-      <c r="AG11" s="2"/>
-      <c r="AH11" s="2"/>
-      <c r="AI11" s="2"/>
-      <c r="AJ11" s="2"/>
-      <c r="AK11" s="2"/>
-      <c r="AL11" s="2"/>
-      <c r="AM11" s="2"/>
-      <c r="AN11" s="2"/>
-      <c r="AO11" s="2"/>
-      <c r="AP11" s="2"/>
-      <c r="AQ11" s="2"/>
-      <c r="AR11" s="2"/>
-      <c r="AS11" s="2"/>
-      <c r="AT11" s="2"/>
-      <c r="AU11" s="2"/>
-      <c r="AV11" s="2"/>
-      <c r="AW11" s="2"/>
-      <c r="AX11" s="2"/>
-      <c r="AY11" s="2"/>
-      <c r="AZ11" s="2"/>
-      <c r="BA11" s="2"/>
-      <c r="BB11" s="2"/>
-      <c r="BC11" s="2"/>
-      <c r="BD11" s="2"/>
-      <c r="BE11" s="2"/>
-      <c r="BF11" s="2"/>
-      <c r="BG11" s="2"/>
-      <c r="BH11" s="2"/>
-      <c r="BI11" s="2"/>
-      <c r="BJ11" s="2"/>
-      <c r="BK11" s="2"/>
-      <c r="BL11" s="2"/>
-      <c r="BM11" s="2"/>
-      <c r="BN11" s="2"/>
-      <c r="BO11" s="2"/>
-      <c r="BP11" s="2"/>
-      <c r="BQ11" s="2"/>
-      <c r="BR11" s="2"/>
-      <c r="BS11" s="2"/>
-      <c r="BT11" s="2"/>
-      <c r="BU11" s="2"/>
-      <c r="BV11" s="2"/>
-      <c r="BW11" s="2"/>
-      <c r="BX11" s="2"/>
-      <c r="BY11" s="2"/>
-      <c r="BZ11" s="2"/>
-      <c r="CA11" s="2"/>
-      <c r="CB11" s="2"/>
-      <c r="CC11" s="2"/>
-      <c r="CD11" s="2"/>
-      <c r="CE11" s="2"/>
-      <c r="CF11" s="2"/>
-      <c r="CG11" s="2"/>
-      <c r="CH11" s="2"/>
-      <c r="CI11" s="2"/>
-      <c r="CJ11" s="2"/>
-      <c r="CK11" s="2"/>
-      <c r="CL11" s="2"/>
-      <c r="CM11" s="2"/>
-      <c r="CN11" s="2"/>
-      <c r="CO11" s="2"/>
-      <c r="CP11" s="2"/>
-      <c r="CQ11" s="2"/>
-      <c r="CR11" s="2"/>
-      <c r="CS11" s="2"/>
-      <c r="CT11" s="2"/>
-      <c r="CU11" s="2"/>
-      <c r="CV11" s="2"/>
-      <c r="CW11" s="2"/>
-      <c r="CX11" s="2"/>
-      <c r="CY11" s="2"/>
-      <c r="CZ11" s="2"/>
-      <c r="DA11" s="2"/>
-      <c r="DB11" s="2"/>
-      <c r="DC11" s="2"/>
-      <c r="DD11" s="2"/>
-      <c r="DE11" s="2"/>
-      <c r="DF11" s="2"/>
-      <c r="DG11" s="2"/>
-      <c r="DH11" s="2"/>
-      <c r="DI11" s="2"/>
-      <c r="DJ11" s="2"/>
-      <c r="DK11" s="2"/>
-      <c r="DL11" s="2"/>
-      <c r="DM11" s="2"/>
-      <c r="DN11" s="2"/>
-      <c r="DO11" s="2"/>
-      <c r="DP11" s="2"/>
-      <c r="DQ11" s="2"/>
-      <c r="DR11" s="2"/>
-      <c r="DS11" s="2"/>
-      <c r="DT11" s="2"/>
-      <c r="DU11" s="2"/>
-      <c r="DV11" s="2"/>
-      <c r="DW11" s="2"/>
-      <c r="DX11" s="2"/>
-      <c r="DY11" s="2"/>
-      <c r="DZ11" s="2"/>
-      <c r="EA11" s="2"/>
-      <c r="EB11" s="2"/>
-      <c r="EC11" s="2"/>
-      <c r="ED11" s="2"/>
-      <c r="EE11" s="2"/>
-      <c r="EF11" s="2"/>
-      <c r="EG11" s="2"/>
-      <c r="EH11" s="2"/>
-      <c r="EI11" s="2"/>
-      <c r="EJ11" s="2"/>
-      <c r="EK11" s="2"/>
-      <c r="EL11" s="2"/>
-      <c r="EM11" s="2"/>
-      <c r="EN11" s="2"/>
-      <c r="EO11" s="2"/>
-      <c r="EP11" s="2"/>
-      <c r="EQ11" s="2"/>
-      <c r="ER11" s="2"/>
-      <c r="ES11" s="2"/>
-      <c r="ET11" s="2"/>
-      <c r="EU11" s="2"/>
-      <c r="EV11" s="2"/>
-      <c r="EW11" s="2"/>
-      <c r="EX11" s="2"/>
-      <c r="EY11" s="2"/>
-      <c r="EZ11" s="2"/>
-      <c r="FA11" s="2"/>
-      <c r="FB11" s="2"/>
-      <c r="FC11" s="2"/>
-      <c r="FD11" s="2"/>
-      <c r="FE11" s="2"/>
-      <c r="FF11" s="2"/>
-      <c r="FG11" s="2"/>
-      <c r="FH11" s="2"/>
-      <c r="FI11" s="2"/>
-      <c r="FJ11" s="2"/>
-      <c r="FK11" s="2"/>
-      <c r="FL11" s="2"/>
-      <c r="FM11" s="2"/>
-      <c r="FN11" s="2"/>
-      <c r="FO11" s="2"/>
-      <c r="FP11" s="2"/>
-      <c r="FQ11" s="2"/>
-      <c r="FR11" s="2"/>
-      <c r="FS11" s="2"/>
-      <c r="FT11" s="2"/>
-      <c r="FU11" s="2"/>
-      <c r="FV11" s="2"/>
-      <c r="FW11" s="2"/>
-      <c r="FX11" s="2"/>
-      <c r="FY11" s="2"/>
-      <c r="FZ11" s="2"/>
-      <c r="GA11" s="2"/>
-      <c r="GB11" s="2"/>
-      <c r="GC11" s="2"/>
-      <c r="GD11" s="2"/>
-      <c r="GE11" s="2"/>
-      <c r="GF11" s="2"/>
-      <c r="GG11" s="2"/>
-      <c r="GH11" s="2"/>
-      <c r="GI11" s="2"/>
-      <c r="GJ11" s="2"/>
-      <c r="GK11" s="2"/>
-    </row>
-    <row r="12" ht="20.1" customHeight="1" spans="3:8">
-      <c r="C12" s="9">
-        <v>300001</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>30</v>
       </c>
       <c r="E12" s="10">
         <v>1</v>
       </c>
       <c r="F12" s="10"/>
-      <c r="G12" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>32</v>
+      <c r="G12" s="11">
+        <v>2902010</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="13" customFormat="1" ht="20.1" customHeight="1" spans="3:193">
+    <row r="13" spans="3:8" ht="20.100000000000001" customHeight="1">
       <c r="C13" s="9">
-        <v>300002</v>
+        <v>200002</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E13" s="10">
         <v>2</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
-      <c r="W13" s="2"/>
-      <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
-      <c r="Z13" s="2"/>
-      <c r="AA13" s="2"/>
-      <c r="AB13" s="2"/>
-      <c r="AC13" s="2"/>
-      <c r="AD13" s="2"/>
-      <c r="AE13" s="2"/>
-      <c r="AF13" s="2"/>
-      <c r="AG13" s="2"/>
-      <c r="AH13" s="2"/>
-      <c r="AI13" s="2"/>
-      <c r="AJ13" s="2"/>
-      <c r="AK13" s="2"/>
-      <c r="AL13" s="2"/>
-      <c r="AM13" s="2"/>
-      <c r="AN13" s="2"/>
-      <c r="AO13" s="2"/>
-      <c r="AP13" s="2"/>
-      <c r="AQ13" s="2"/>
-      <c r="AR13" s="2"/>
-      <c r="AS13" s="2"/>
-      <c r="AT13" s="2"/>
-      <c r="AU13" s="2"/>
-      <c r="AV13" s="2"/>
-      <c r="AW13" s="2"/>
-      <c r="AX13" s="2"/>
-      <c r="AY13" s="2"/>
-      <c r="AZ13" s="2"/>
-      <c r="BA13" s="2"/>
-      <c r="BB13" s="2"/>
-      <c r="BC13" s="2"/>
-      <c r="BD13" s="2"/>
-      <c r="BE13" s="2"/>
-      <c r="BF13" s="2"/>
-      <c r="BG13" s="2"/>
-      <c r="BH13" s="2"/>
-      <c r="BI13" s="2"/>
-      <c r="BJ13" s="2"/>
-      <c r="BK13" s="2"/>
-      <c r="BL13" s="2"/>
-      <c r="BM13" s="2"/>
-      <c r="BN13" s="2"/>
-      <c r="BO13" s="2"/>
-      <c r="BP13" s="2"/>
-      <c r="BQ13" s="2"/>
-      <c r="BR13" s="2"/>
-      <c r="BS13" s="2"/>
-      <c r="BT13" s="2"/>
-      <c r="BU13" s="2"/>
-      <c r="BV13" s="2"/>
-      <c r="BW13" s="2"/>
-      <c r="BX13" s="2"/>
-      <c r="BY13" s="2"/>
-      <c r="BZ13" s="2"/>
-      <c r="CA13" s="2"/>
-      <c r="CB13" s="2"/>
-      <c r="CC13" s="2"/>
-      <c r="CD13" s="2"/>
-      <c r="CE13" s="2"/>
-      <c r="CF13" s="2"/>
-      <c r="CG13" s="2"/>
-      <c r="CH13" s="2"/>
-      <c r="CI13" s="2"/>
-      <c r="CJ13" s="2"/>
-      <c r="CK13" s="2"/>
-      <c r="CL13" s="2"/>
-      <c r="CM13" s="2"/>
-      <c r="CN13" s="2"/>
-      <c r="CO13" s="2"/>
-      <c r="CP13" s="2"/>
-      <c r="CQ13" s="2"/>
-      <c r="CR13" s="2"/>
-      <c r="CS13" s="2"/>
-      <c r="CT13" s="2"/>
-      <c r="CU13" s="2"/>
-      <c r="CV13" s="2"/>
-      <c r="CW13" s="2"/>
-      <c r="CX13" s="2"/>
-      <c r="CY13" s="2"/>
-      <c r="CZ13" s="2"/>
-      <c r="DA13" s="2"/>
-      <c r="DB13" s="2"/>
-      <c r="DC13" s="2"/>
-      <c r="DD13" s="2"/>
-      <c r="DE13" s="2"/>
-      <c r="DF13" s="2"/>
-      <c r="DG13" s="2"/>
-      <c r="DH13" s="2"/>
-      <c r="DI13" s="2"/>
-      <c r="DJ13" s="2"/>
-      <c r="DK13" s="2"/>
-      <c r="DL13" s="2"/>
-      <c r="DM13" s="2"/>
-      <c r="DN13" s="2"/>
-      <c r="DO13" s="2"/>
-      <c r="DP13" s="2"/>
-      <c r="DQ13" s="2"/>
-      <c r="DR13" s="2"/>
-      <c r="DS13" s="2"/>
-      <c r="DT13" s="2"/>
-      <c r="DU13" s="2"/>
-      <c r="DV13" s="2"/>
-      <c r="DW13" s="2"/>
-      <c r="DX13" s="2"/>
-      <c r="DY13" s="2"/>
-      <c r="DZ13" s="2"/>
-      <c r="EA13" s="2"/>
-      <c r="EB13" s="2"/>
-      <c r="EC13" s="2"/>
-      <c r="ED13" s="2"/>
-      <c r="EE13" s="2"/>
-      <c r="EF13" s="2"/>
-      <c r="EG13" s="2"/>
-      <c r="EH13" s="2"/>
-      <c r="EI13" s="2"/>
-      <c r="EJ13" s="2"/>
-      <c r="EK13" s="2"/>
-      <c r="EL13" s="2"/>
-      <c r="EM13" s="2"/>
-      <c r="EN13" s="2"/>
-      <c r="EO13" s="2"/>
-      <c r="EP13" s="2"/>
-      <c r="EQ13" s="2"/>
-      <c r="ER13" s="2"/>
-      <c r="ES13" s="2"/>
-      <c r="ET13" s="2"/>
-      <c r="EU13" s="2"/>
-      <c r="EV13" s="2"/>
-      <c r="EW13" s="2"/>
-      <c r="EX13" s="2"/>
-      <c r="EY13" s="2"/>
-      <c r="EZ13" s="2"/>
-      <c r="FA13" s="2"/>
-      <c r="FB13" s="2"/>
-      <c r="FC13" s="2"/>
-      <c r="FD13" s="2"/>
-      <c r="FE13" s="2"/>
-      <c r="FF13" s="2"/>
-      <c r="FG13" s="2"/>
-      <c r="FH13" s="2"/>
-      <c r="FI13" s="2"/>
-      <c r="FJ13" s="2"/>
-      <c r="FK13" s="2"/>
-      <c r="FL13" s="2"/>
-      <c r="FM13" s="2"/>
-      <c r="FN13" s="2"/>
-      <c r="FO13" s="2"/>
-      <c r="FP13" s="2"/>
-      <c r="FQ13" s="2"/>
-      <c r="FR13" s="2"/>
-      <c r="FS13" s="2"/>
-      <c r="FT13" s="2"/>
-      <c r="FU13" s="2"/>
-      <c r="FV13" s="2"/>
-      <c r="FW13" s="2"/>
-      <c r="FX13" s="2"/>
-      <c r="FY13" s="2"/>
-      <c r="FZ13" s="2"/>
-      <c r="GA13" s="2"/>
-      <c r="GB13" s="2"/>
-      <c r="GC13" s="2"/>
-      <c r="GD13" s="2"/>
-      <c r="GE13" s="2"/>
-      <c r="GF13" s="2"/>
-      <c r="GG13" s="2"/>
-      <c r="GH13" s="2"/>
-      <c r="GI13" s="2"/>
-      <c r="GJ13" s="2"/>
-      <c r="GK13" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="G13" s="11">
+        <v>2902020</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="14" customFormat="1" ht="20.1" customHeight="1" spans="3:193">
+    <row r="14" spans="3:8" ht="20.100000000000001" customHeight="1">
       <c r="C14" s="9">
-        <v>300003</v>
+        <v>200003</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E14" s="10">
         <v>3</v>
       </c>
       <c r="F14" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="11">
+        <v>2902030</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8" ht="20.100000000000001" customHeight="1">
+      <c r="C15" s="9">
+        <v>200004</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
-      <c r="W14" s="2"/>
-      <c r="X14" s="2"/>
-      <c r="Y14" s="2"/>
-      <c r="Z14" s="2"/>
-      <c r="AA14" s="2"/>
-      <c r="AB14" s="2"/>
-      <c r="AC14" s="2"/>
-      <c r="AD14" s="2"/>
-      <c r="AE14" s="2"/>
-      <c r="AF14" s="2"/>
-      <c r="AG14" s="2"/>
-      <c r="AH14" s="2"/>
-      <c r="AI14" s="2"/>
-      <c r="AJ14" s="2"/>
-      <c r="AK14" s="2"/>
-      <c r="AL14" s="2"/>
-      <c r="AM14" s="2"/>
-      <c r="AN14" s="2"/>
-      <c r="AO14" s="2"/>
-      <c r="AP14" s="2"/>
-      <c r="AQ14" s="2"/>
-      <c r="AR14" s="2"/>
-      <c r="AS14" s="2"/>
-      <c r="AT14" s="2"/>
-      <c r="AU14" s="2"/>
-      <c r="AV14" s="2"/>
-      <c r="AW14" s="2"/>
-      <c r="AX14" s="2"/>
-      <c r="AY14" s="2"/>
-      <c r="AZ14" s="2"/>
-      <c r="BA14" s="2"/>
-      <c r="BB14" s="2"/>
-      <c r="BC14" s="2"/>
-      <c r="BD14" s="2"/>
-      <c r="BE14" s="2"/>
-      <c r="BF14" s="2"/>
-      <c r="BG14" s="2"/>
-      <c r="BH14" s="2"/>
-      <c r="BI14" s="2"/>
-      <c r="BJ14" s="2"/>
-      <c r="BK14" s="2"/>
-      <c r="BL14" s="2"/>
-      <c r="BM14" s="2"/>
-      <c r="BN14" s="2"/>
-      <c r="BO14" s="2"/>
-      <c r="BP14" s="2"/>
-      <c r="BQ14" s="2"/>
-      <c r="BR14" s="2"/>
-      <c r="BS14" s="2"/>
-      <c r="BT14" s="2"/>
-      <c r="BU14" s="2"/>
-      <c r="BV14" s="2"/>
-      <c r="BW14" s="2"/>
-      <c r="BX14" s="2"/>
-      <c r="BY14" s="2"/>
-      <c r="BZ14" s="2"/>
-      <c r="CA14" s="2"/>
-      <c r="CB14" s="2"/>
-      <c r="CC14" s="2"/>
-      <c r="CD14" s="2"/>
-      <c r="CE14" s="2"/>
-      <c r="CF14" s="2"/>
-      <c r="CG14" s="2"/>
-      <c r="CH14" s="2"/>
-      <c r="CI14" s="2"/>
-      <c r="CJ14" s="2"/>
-      <c r="CK14" s="2"/>
-      <c r="CL14" s="2"/>
-      <c r="CM14" s="2"/>
-      <c r="CN14" s="2"/>
-      <c r="CO14" s="2"/>
-      <c r="CP14" s="2"/>
-      <c r="CQ14" s="2"/>
-      <c r="CR14" s="2"/>
-      <c r="CS14" s="2"/>
-      <c r="CT14" s="2"/>
-      <c r="CU14" s="2"/>
-      <c r="CV14" s="2"/>
-      <c r="CW14" s="2"/>
-      <c r="CX14" s="2"/>
-      <c r="CY14" s="2"/>
-      <c r="CZ14" s="2"/>
-      <c r="DA14" s="2"/>
-      <c r="DB14" s="2"/>
-      <c r="DC14" s="2"/>
-      <c r="DD14" s="2"/>
-      <c r="DE14" s="2"/>
-      <c r="DF14" s="2"/>
-      <c r="DG14" s="2"/>
-      <c r="DH14" s="2"/>
-      <c r="DI14" s="2"/>
-      <c r="DJ14" s="2"/>
-      <c r="DK14" s="2"/>
-      <c r="DL14" s="2"/>
-      <c r="DM14" s="2"/>
-      <c r="DN14" s="2"/>
-      <c r="DO14" s="2"/>
-      <c r="DP14" s="2"/>
-      <c r="DQ14" s="2"/>
-      <c r="DR14" s="2"/>
-      <c r="DS14" s="2"/>
-      <c r="DT14" s="2"/>
-      <c r="DU14" s="2"/>
-      <c r="DV14" s="2"/>
-      <c r="DW14" s="2"/>
-      <c r="DX14" s="2"/>
-      <c r="DY14" s="2"/>
-      <c r="DZ14" s="2"/>
-      <c r="EA14" s="2"/>
-      <c r="EB14" s="2"/>
-      <c r="EC14" s="2"/>
-      <c r="ED14" s="2"/>
-      <c r="EE14" s="2"/>
-      <c r="EF14" s="2"/>
-      <c r="EG14" s="2"/>
-      <c r="EH14" s="2"/>
-      <c r="EI14" s="2"/>
-      <c r="EJ14" s="2"/>
-      <c r="EK14" s="2"/>
-      <c r="EL14" s="2"/>
-      <c r="EM14" s="2"/>
-      <c r="EN14" s="2"/>
-      <c r="EO14" s="2"/>
-      <c r="EP14" s="2"/>
-      <c r="EQ14" s="2"/>
-      <c r="ER14" s="2"/>
-      <c r="ES14" s="2"/>
-      <c r="ET14" s="2"/>
-      <c r="EU14" s="2"/>
-      <c r="EV14" s="2"/>
-      <c r="EW14" s="2"/>
-      <c r="EX14" s="2"/>
-      <c r="EY14" s="2"/>
-      <c r="EZ14" s="2"/>
-      <c r="FA14" s="2"/>
-      <c r="FB14" s="2"/>
-      <c r="FC14" s="2"/>
-      <c r="FD14" s="2"/>
-      <c r="FE14" s="2"/>
-      <c r="FF14" s="2"/>
-      <c r="FG14" s="2"/>
-      <c r="FH14" s="2"/>
-      <c r="FI14" s="2"/>
-      <c r="FJ14" s="2"/>
-      <c r="FK14" s="2"/>
-      <c r="FL14" s="2"/>
-      <c r="FM14" s="2"/>
-      <c r="FN14" s="2"/>
-      <c r="FO14" s="2"/>
-      <c r="FP14" s="2"/>
-      <c r="FQ14" s="2"/>
-      <c r="FR14" s="2"/>
-      <c r="FS14" s="2"/>
-      <c r="FT14" s="2"/>
-      <c r="FU14" s="2"/>
-      <c r="FV14" s="2"/>
-      <c r="FW14" s="2"/>
-      <c r="FX14" s="2"/>
-      <c r="FY14" s="2"/>
-      <c r="FZ14" s="2"/>
-      <c r="GA14" s="2"/>
-      <c r="GB14" s="2"/>
-      <c r="GC14" s="2"/>
-      <c r="GD14" s="2"/>
-      <c r="GE14" s="2"/>
-      <c r="GF14" s="2"/>
-      <c r="GG14" s="2"/>
-      <c r="GH14" s="2"/>
-      <c r="GI14" s="2"/>
-      <c r="GJ14" s="2"/>
-      <c r="GK14" s="2"/>
+      <c r="E15" s="10">
+        <v>4</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="11">
+        <v>2902040</v>
+      </c>
+      <c r="H15" s="12"/>
     </row>
-    <row r="15" ht="21" customHeight="1" spans="8:8">
-      <c r="H15" s="2"/>
+    <row r="16" spans="3:8" ht="20.100000000000001" customHeight="1">
+      <c r="C16" s="9">
+        <v>200005</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="10">
+        <v>5</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="11">
+        <v>2902050</v>
+      </c>
+      <c r="H16" s="12"/>
+    </row>
+    <row r="17" spans="3:8" ht="20.100000000000001" customHeight="1">
+      <c r="C17" s="9">
+        <v>200006</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="10">
+        <v>6</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="11">
+        <v>2902060</v>
+      </c>
+      <c r="H17" s="12"/>
+    </row>
+    <row r="18" spans="3:8" ht="20.100000000000001" customHeight="1">
+      <c r="C18" s="9">
+        <v>300001</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="10">
+        <v>1</v>
+      </c>
+      <c r="F18" s="10"/>
+      <c r="G18" s="11">
+        <v>2903010</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" ht="20.100000000000001" customHeight="1">
+      <c r="C19" s="9">
+        <v>300002</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="10">
+        <v>2</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="11">
+        <v>2903020</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" ht="20.100000000000001" customHeight="1">
+      <c r="C20" s="9">
+        <v>300003</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="10">
+        <v>3</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="11">
+        <v>2903030</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" ht="20.100000000000001" customHeight="1">
+      <c r="C21" s="9">
+        <v>300004</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="10">
+        <v>4</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="9">
+        <v>2903040</v>
+      </c>
+      <c r="H21" s="9"/>
+    </row>
+    <row r="22" spans="3:8" ht="20.100000000000001" customHeight="1">
+      <c r="C22" s="9">
+        <v>300005</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="10">
+        <v>5</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="9">
+        <v>2903050</v>
+      </c>
+      <c r="H22" s="9"/>
+    </row>
+    <row r="23" spans="3:8" ht="20.100000000000001" customHeight="1">
+      <c r="C23" s="9">
+        <v>300006</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="10">
+        <v>6</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="9">
+        <v>2903060</v>
+      </c>
+      <c r="H23" s="9"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
